--- a/Excel/CardPool.xlsx
+++ b/Excel/CardPool.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,26 @@
   </si>
   <si>
     <t>lastProb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleDrawPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单抽价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seriesDrawPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连抽价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitDrawPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,23 +605,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,34 +630,43 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -664,14 +694,23 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,34 +718,43 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -714,34 +762,43 @@
         <v>24</v>
       </c>
       <c r="C4" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4">
-        <v>0.18</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4">
-        <v>0.76500000000000001</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G4" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J4" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H4" s="4">
+      <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="L4" s="4">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -749,30 +806,39 @@
         <v>26</v>
       </c>
       <c r="C5" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4">
-        <v>0.18</v>
+        <v>150</v>
       </c>
       <c r="E5" s="4">
-        <v>0.76500000000000001</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G5" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J5" s="4">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H5" s="4">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
